--- a/factoresC 100FINAL.xlsx
+++ b/factoresC 100FINAL.xlsx
@@ -579,13 +579,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>82.6575</v>
+        <v>58.1582</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>85</v>
+        <v>89.5286</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -603,22 +603,22 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>85</v>
+        <v>89.52889999999999</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>337.6576</v>
+        <v>337.2157</v>
       </c>
       <c r="P2">
         <v>350</v>
       </c>
       <c r="Q2">
-        <v>18559.45728510104</v>
+        <v>18442.36774818028</v>
       </c>
       <c r="R2">
-        <v>58</v>
+        <v>57.56</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -627,16 +627,16 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>61.22</v>
+        <v>59.84</v>
       </c>
       <c r="V2">
-        <v>93.62</v>
+        <v>90.68000000000001</v>
       </c>
       <c r="W2">
-        <v>79.17</v>
+        <v>75.78</v>
       </c>
       <c r="X2">
-        <v>3.88</v>
+        <v>4.32</v>
       </c>
       <c r="Y2">
         <v>8.460000000000001</v>
@@ -695,13 +695,13 @@
         <v>106.7612</v>
       </c>
       <c r="E3">
-        <v>25.537</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>85</v>
+        <v>91.64660000000001</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>85</v>
+        <v>96.8874</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -719,22 +719,22 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>85</v>
+        <v>91.6474</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>387.2983</v>
+        <v>386.9425</v>
       </c>
       <c r="P3">
         <v>400</v>
       </c>
       <c r="Q3">
-        <v>20470.28678866952</v>
+        <v>20315.99951553751</v>
       </c>
       <c r="R3">
-        <v>57.99</v>
+        <v>57.64</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -743,16 +743,16 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>66.38</v>
+        <v>64.83</v>
       </c>
       <c r="V3">
-        <v>93.62</v>
+        <v>90.64</v>
       </c>
       <c r="W3">
-        <v>79.13</v>
+        <v>75.62</v>
       </c>
       <c r="X3">
-        <v>3.89</v>
+        <v>4.24</v>
       </c>
       <c r="Y3">
         <v>8.81</v>
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>91.5763</v>
+        <v>102.2129</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>85</v>
+        <v>87.1292</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>22.3987</v>
+        <v>8.191599999999999</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -835,22 +835,22 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>85</v>
+        <v>87.12479999999999</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>283.975</v>
+        <v>284.6585</v>
       </c>
       <c r="P4">
         <v>299.185</v>
       </c>
       <c r="Q4">
-        <v>14422.73803972408</v>
+        <v>14314.84164433441</v>
       </c>
       <c r="R4">
-        <v>61.26</v>
+        <v>61.94</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>99.95</v>
+        <v>97.61</v>
       </c>
       <c r="V4">
-        <v>93.59999999999999</v>
+        <v>90.70999999999999</v>
       </c>
       <c r="W4">
-        <v>79.61</v>
+        <v>76.77</v>
       </c>
       <c r="X4">
-        <v>0.62</v>
+        <v>-0.06</v>
       </c>
       <c r="Y4">
         <v>14.58</v>
@@ -927,13 +927,13 @@
         <v>107.2506</v>
       </c>
       <c r="E5">
-        <v>39.7508</v>
+        <v>7.2207</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>85</v>
+        <v>92.1467</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>82.59139999999999</v>
+        <v>100</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -951,22 +951,22 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>85</v>
+        <v>92.1417</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>399.5928</v>
+        <v>398.7597</v>
       </c>
       <c r="P5">
         <v>400</v>
       </c>
       <c r="Q5">
-        <v>21203.06366447376</v>
+        <v>21010.19178370426</v>
       </c>
       <c r="R5">
-        <v>61.69</v>
+        <v>60.85</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -975,16 +975,16 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>99.95</v>
+        <v>97.53</v>
       </c>
       <c r="V5">
-        <v>71.52</v>
+        <v>69.2</v>
       </c>
       <c r="W5">
-        <v>77.26000000000001</v>
+        <v>73.70999999999999</v>
       </c>
       <c r="X5">
-        <v>0.19</v>
+        <v>1.03</v>
       </c>
       <c r="Y5">
         <v>0.21</v>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>85</v>
+        <v>89.47020000000001</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>63.1641</v>
+        <v>54.8792</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1067,22 +1067,22 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>85</v>
+        <v>89.4114</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>337.7259</v>
+        <v>338.3225</v>
       </c>
       <c r="P6">
         <v>400</v>
       </c>
       <c r="Q6">
-        <v>17517.93638595348</v>
+        <v>17464.91738167295</v>
       </c>
       <c r="R6">
-        <v>81.08</v>
+        <v>81.68000000000001</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1091,16 +1091,16 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>94.25</v>
+        <v>91.34</v>
       </c>
       <c r="V6">
-        <v>93.62</v>
+        <v>90.69</v>
       </c>
       <c r="W6">
-        <v>83.13</v>
+        <v>79.92</v>
       </c>
       <c r="X6">
-        <v>-19.2</v>
+        <v>-19.8</v>
       </c>
       <c r="Y6">
         <v>81.48</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>85</v>
+        <v>90.3473</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>78.81140000000001</v>
+        <v>68.9002</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>85</v>
+        <v>90.2799</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>354.2551</v>
+        <v>354.9711</v>
       </c>
       <c r="P7">
         <v>400</v>
       </c>
       <c r="Q7">
-        <v>18500.86986944718</v>
+        <v>18437.55675230454</v>
       </c>
       <c r="R7">
-        <v>78.83</v>
+        <v>79.54000000000001</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1207,16 +1207,16 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>94.31</v>
+        <v>91.37</v>
       </c>
       <c r="V7">
-        <v>93.62</v>
+        <v>90.67</v>
       </c>
       <c r="W7">
-        <v>83.09</v>
+        <v>79.84</v>
       </c>
       <c r="X7">
-        <v>-16.95</v>
+        <v>-17.66</v>
       </c>
       <c r="Y7">
         <v>62.69</v>
@@ -1275,13 +1275,13 @@
         <v>106.8243</v>
       </c>
       <c r="E8">
-        <v>30.0118</v>
+        <v>0.7173</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>85</v>
+        <v>91.7175</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1299,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>85</v>
+        <v>91.6795</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>391.8361</v>
+        <v>390.9386</v>
       </c>
       <c r="P8">
         <v>400</v>
       </c>
       <c r="Q8">
-        <v>20741.9244635173</v>
+        <v>20554.10095952612</v>
       </c>
       <c r="R8">
-        <v>58.22</v>
+        <v>57.33</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1323,16 +1323,16 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>94.18000000000001</v>
+        <v>91.88</v>
       </c>
       <c r="V8">
-        <v>93.62</v>
+        <v>90.64</v>
       </c>
       <c r="W8">
-        <v>92.31999999999999</v>
+        <v>88.29000000000001</v>
       </c>
       <c r="X8">
-        <v>3.66</v>
+        <v>4.55</v>
       </c>
       <c r="Y8">
         <v>4.51</v>
@@ -1391,13 +1391,13 @@
         <v>107.202</v>
       </c>
       <c r="E9">
-        <v>36.267</v>
+        <v>6.2763</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>85</v>
+        <v>92.0941</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1415,22 +1415,22 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>85</v>
+        <v>92.0806</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>398.4692</v>
+        <v>397.653</v>
       </c>
       <c r="P9">
         <v>400</v>
       </c>
       <c r="Q9">
-        <v>21136.12807052259</v>
+        <v>20945.41326483783</v>
       </c>
       <c r="R9">
-        <v>60.66</v>
+        <v>59.85</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1439,16 +1439,16 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>95.41</v>
+        <v>93.06999999999999</v>
       </c>
       <c r="V9">
-        <v>93.62</v>
+        <v>90.63</v>
       </c>
       <c r="W9">
-        <v>74.43000000000001</v>
+        <v>71.01000000000001</v>
       </c>
       <c r="X9">
-        <v>1.22</v>
+        <v>2.03</v>
       </c>
       <c r="Y9">
         <v>0.31</v>
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>-58.812</v>
+        <v>10.4536</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1513,40 +1513,40 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>-59.674</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>84.44889999999999</v>
+        <v>35.5272</v>
       </c>
       <c r="J10">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>120</v>
       </c>
       <c r="M10">
-        <v>85</v>
+        <v>89.55410000000001</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>355.963</v>
+        <v>355.5349</v>
       </c>
       <c r="P10">
         <v>400</v>
       </c>
       <c r="Q10">
-        <v>64874.70479382118</v>
+        <v>26197.8294762646</v>
       </c>
       <c r="R10">
-        <v>60.96</v>
+        <v>60.53</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1555,16 +1555,16 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>86.52</v>
+        <v>87.66</v>
       </c>
       <c r="V10">
-        <v>96.68000000000001</v>
+        <v>92.51000000000001</v>
       </c>
       <c r="W10">
         <v>99.95</v>
       </c>
       <c r="X10">
-        <v>0.92</v>
+        <v>1.35</v>
       </c>
       <c r="Y10">
         <v>43.11</v>
@@ -1752,13 +1752,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>87.1088</v>
+        <v>59.8332</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>85</v>
+        <v>90.83</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1776,22 +1776,22 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>85</v>
+        <v>90.8232</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>342.1089</v>
+        <v>341.4864</v>
       </c>
       <c r="P2">
         <v>350</v>
       </c>
       <c r="Q2">
-        <v>18826.53103674994</v>
+        <v>18672.65298612167</v>
       </c>
       <c r="R2">
-        <v>39.26</v>
+        <v>38.64</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -1800,16 +1800,16 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>55.51</v>
+        <v>54.34</v>
       </c>
       <c r="V2">
-        <v>77.5</v>
+        <v>75.03</v>
       </c>
       <c r="W2">
-        <v>69.26000000000001</v>
+        <v>66.13</v>
       </c>
       <c r="X2">
-        <v>4.4</v>
+        <v>5.02</v>
       </c>
       <c r="Y2">
         <v>3.49</v>
@@ -1868,13 +1868,13 @@
         <v>108.2448</v>
       </c>
       <c r="E3">
-        <v>29.1141</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>85</v>
+        <v>93.13030000000001</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>85</v>
+        <v>97.30719999999999</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>85</v>
+        <v>93.125</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>392.359</v>
+        <v>391.8074</v>
       </c>
       <c r="P3">
         <v>400</v>
       </c>
       <c r="Q3">
-        <v>20759.09245397104</v>
+        <v>20563.44052396623</v>
       </c>
       <c r="R3">
-        <v>39.31</v>
+        <v>38.76</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -1916,16 +1916,16 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>60.79</v>
+        <v>59.46</v>
       </c>
       <c r="V3">
-        <v>77.5</v>
+        <v>74.98</v>
       </c>
       <c r="W3">
-        <v>69.22</v>
+        <v>65.95</v>
       </c>
       <c r="X3">
-        <v>4.35</v>
+        <v>4.9</v>
       </c>
       <c r="Y3">
         <v>3.29</v>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>85</v>
+        <v>88.3203</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>17.098</v>
+        <v>10.7512</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>85</v>
+        <v>88.30289999999999</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>290.4916</v>
+        <v>290.7681</v>
       </c>
       <c r="P4">
         <v>298.544</v>
       </c>
       <c r="Q4">
-        <v>14695.55839825084</v>
+        <v>14645.91501599604</v>
       </c>
       <c r="R4">
-        <v>43.36</v>
+        <v>43.64</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -2032,16 +2032,16 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>95.15000000000001</v>
+        <v>92.23</v>
       </c>
       <c r="V4">
-        <v>77.48999999999999</v>
+        <v>75.06999999999999</v>
       </c>
       <c r="W4">
-        <v>69.77</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="X4">
-        <v>0.3</v>
+        <v>0.02</v>
       </c>
       <c r="Y4">
         <v>7.75</v>
@@ -2100,13 +2100,13 @@
         <v>108.6535</v>
       </c>
       <c r="E5">
-        <v>38.0468</v>
+        <v>5.1161</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>85</v>
+        <v>93.5558</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -2124,22 +2124,22 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>85</v>
+        <v>93.5393</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>401.7004</v>
+        <v>400.8647</v>
       </c>
       <c r="P5">
         <v>400</v>
       </c>
       <c r="Q5">
-        <v>21315.4885481999</v>
+        <v>21094.39737200012</v>
       </c>
       <c r="R5">
-        <v>43.35</v>
+        <v>42.51</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -2148,16 +2148,16 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>94.40000000000001</v>
+        <v>92.13</v>
       </c>
       <c r="V5">
-        <v>55.43</v>
+        <v>53.57</v>
       </c>
       <c r="W5">
-        <v>67.31</v>
+        <v>64.04000000000001</v>
       </c>
       <c r="X5">
-        <v>0.31</v>
+        <v>1.15</v>
       </c>
       <c r="Y5">
         <v>-2.01</v>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>85</v>
+        <v>91.4491</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>79.80110000000001</v>
+        <v>67.86660000000001</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2240,22 +2240,22 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>85</v>
+        <v>91.3882</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>356.3394</v>
+        <v>357.2421</v>
       </c>
       <c r="P6">
         <v>400</v>
       </c>
       <c r="Q6">
-        <v>18614.98017367318</v>
+        <v>18540.77148300349</v>
       </c>
       <c r="R6">
-        <v>66.38</v>
+        <v>67.28</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -2264,16 +2264,16 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>88.67</v>
+        <v>85.89</v>
       </c>
       <c r="V6">
-        <v>77.5</v>
+        <v>75.01000000000001</v>
       </c>
       <c r="W6">
-        <v>73.25</v>
+        <v>70.29000000000001</v>
       </c>
       <c r="X6">
-        <v>-22.72</v>
+        <v>-23.62</v>
       </c>
       <c r="Y6">
         <v>66.38</v>
@@ -2332,13 +2332,13 @@
         <v>107.6978</v>
       </c>
       <c r="E7">
-        <v>15.5428</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>85</v>
+        <v>92.60760000000001</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>85</v>
+        <v>85.1482</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -2356,22 +2356,22 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>85</v>
+        <v>92.53870000000001</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>378.2406</v>
+        <v>377.9923</v>
       </c>
       <c r="P7">
         <v>400</v>
       </c>
       <c r="Q7">
-        <v>19917.45939460754</v>
+        <v>19751.09947611162</v>
       </c>
       <c r="R7">
-        <v>63.29</v>
+        <v>63.05</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -2380,16 +2380,16 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>88.39</v>
+        <v>85.94</v>
       </c>
       <c r="V7">
-        <v>77.5</v>
+        <v>74.98999999999999</v>
       </c>
       <c r="W7">
-        <v>73.45</v>
+        <v>70.23</v>
       </c>
       <c r="X7">
-        <v>-19.63</v>
+        <v>-19.39</v>
       </c>
       <c r="Y7">
         <v>41.39</v>
@@ -2448,13 +2448,13 @@
         <v>108.8901</v>
       </c>
       <c r="E8">
-        <v>46.0456</v>
+        <v>12.3339</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>85</v>
+        <v>93.78400000000001</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -2472,22 +2472,22 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>85</v>
+        <v>93.8104</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>409.9358</v>
+        <v>408.8185</v>
       </c>
       <c r="P8">
         <v>400</v>
       </c>
       <c r="Q8">
-        <v>21807.2441707479</v>
+        <v>21564.26193241461</v>
       </c>
       <c r="R8">
-        <v>44.68</v>
+        <v>43.57</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -2496,16 +2496,16 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>88.29000000000001</v>
+        <v>86.22</v>
       </c>
       <c r="V8">
-        <v>77.51000000000001</v>
+        <v>74.97</v>
       </c>
       <c r="W8">
-        <v>83.14</v>
+        <v>79.28</v>
       </c>
       <c r="X8">
-        <v>-1.02</v>
+        <v>0.09</v>
       </c>
       <c r="Y8">
         <v>-8.91</v>
@@ -2564,13 +2564,13 @@
         <v>108.7247</v>
       </c>
       <c r="E9">
-        <v>40.0418</v>
+        <v>6.7114</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>85</v>
+        <v>93.6153</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -2588,22 +2588,22 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>85</v>
+        <v>93.6182</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>403.7666</v>
+        <v>402.6696</v>
       </c>
       <c r="P9">
         <v>400</v>
       </c>
       <c r="Q9">
-        <v>21438.74680642711</v>
+        <v>21200.59240597386</v>
       </c>
       <c r="R9">
-        <v>44.08</v>
+        <v>42.98</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -2612,16 +2612,16 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>89.73</v>
+        <v>87.61</v>
       </c>
       <c r="V9">
-        <v>77.5</v>
+        <v>74.97</v>
       </c>
       <c r="W9">
-        <v>64.7</v>
+        <v>61.52</v>
       </c>
       <c r="X9">
-        <v>-0.42</v>
+        <v>0.68</v>
       </c>
       <c r="Y9">
         <v>-3.35</v>
@@ -2680,13 +2680,13 @@
         <v>107.026</v>
       </c>
       <c r="E10">
-        <v>3.962</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>85</v>
+        <v>91.9361</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>85</v>
+        <v>75.9329</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -2704,22 +2704,22 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>85</v>
+        <v>91.30889999999999</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>365.988</v>
+        <v>366.2039</v>
       </c>
       <c r="P10">
         <v>400</v>
       </c>
       <c r="Q10">
-        <v>19189.02128655378</v>
+        <v>19069.52384612837</v>
       </c>
       <c r="R10">
-        <v>44.3</v>
+        <v>44.52</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -2728,16 +2728,16 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>89.95</v>
+        <v>87.2</v>
       </c>
       <c r="V10">
-        <v>77.48</v>
+        <v>74.98999999999999</v>
       </c>
       <c r="W10">
-        <v>99.78</v>
+        <v>95.84</v>
       </c>
       <c r="X10">
-        <v>-0.64</v>
+        <v>-0.86</v>
       </c>
       <c r="Y10">
         <v>34.65</v>
@@ -2925,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>90.9652</v>
+        <v>60.7491</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>85</v>
+        <v>92.40349999999999</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2940,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>85</v>
+        <v>92.38039999999999</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>345.9653</v>
+        <v>345.533</v>
       </c>
       <c r="P2">
         <v>350</v>
       </c>
       <c r="Q2">
-        <v>19057.91763846613</v>
+        <v>18884.14033069278</v>
       </c>
       <c r="R2">
-        <v>30.38</v>
+        <v>29.95</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -2973,16 +2973,16 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>37.78</v>
+        <v>37.18</v>
       </c>
       <c r="V2">
-        <v>63.85</v>
+        <v>61.76</v>
       </c>
       <c r="W2">
-        <v>47.08</v>
+        <v>44.63</v>
       </c>
       <c r="X2">
-        <v>2.7</v>
+        <v>3.13</v>
       </c>
       <c r="Y2">
         <v>1.34</v>
@@ -3041,13 +3041,13 @@
         <v>110.037</v>
       </c>
       <c r="E3">
-        <v>31.2574</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>85</v>
+        <v>94.92059999999999</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>85</v>
+        <v>96.1147</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -3065,22 +3065,22 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>85</v>
+        <v>94.90219999999999</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>396.2945</v>
+        <v>395.9745</v>
       </c>
       <c r="P3">
         <v>400</v>
       </c>
       <c r="Q3">
-        <v>20977.30018289684</v>
+        <v>20759.87136764381</v>
       </c>
       <c r="R3">
-        <v>30.38</v>
+        <v>30.06</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -3089,16 +3089,16 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>43.22</v>
+        <v>42.43</v>
       </c>
       <c r="V3">
-        <v>63.85</v>
+        <v>61.7</v>
       </c>
       <c r="W3">
-        <v>47.04</v>
+        <v>44.44</v>
       </c>
       <c r="X3">
-        <v>2.7</v>
+        <v>3.02</v>
       </c>
       <c r="Y3">
         <v>1</v>
@@ -3163,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>85</v>
+        <v>89.7419</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3172,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>20.9042</v>
+        <v>11.9027</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -3181,22 +3181,22 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>85</v>
+        <v>89.7102</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>295.7145</v>
+        <v>296.165</v>
       </c>
       <c r="P4">
         <v>298.032</v>
       </c>
       <c r="Q4">
-        <v>14994.76527959421</v>
+        <v>14927.27939973062</v>
       </c>
       <c r="R4">
-        <v>33.93</v>
+        <v>34.38</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -3205,16 +3205,16 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>77.59999999999999</v>
+        <v>75.18000000000001</v>
       </c>
       <c r="V4">
-        <v>63.84</v>
+        <v>61.81</v>
       </c>
       <c r="W4">
-        <v>47.57</v>
+        <v>45.62</v>
       </c>
       <c r="X4">
-        <v>-0.85</v>
+        <v>-1.3</v>
       </c>
       <c r="Y4">
         <v>3.16</v>
@@ -3273,13 +3273,13 @@
         <v>110.2722</v>
       </c>
       <c r="E5">
-        <v>37.0041</v>
+        <v>1.0044</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>85</v>
+        <v>95.1735</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -3297,22 +3297,22 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>85</v>
+        <v>95.14830000000001</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>402.2764</v>
+        <v>401.5985</v>
       </c>
       <c r="P5">
         <v>400</v>
       </c>
       <c r="Q5">
-        <v>21333.86246489838</v>
+        <v>21089.96920810842</v>
       </c>
       <c r="R5">
-        <v>32.15</v>
+        <v>31.47</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -3321,16 +3321,16 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>76.79000000000001</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="V5">
-        <v>41.79</v>
+        <v>40.31</v>
       </c>
       <c r="W5">
-        <v>45.14</v>
+        <v>42.54</v>
       </c>
       <c r="X5">
-        <v>0.93</v>
+        <v>1.61</v>
       </c>
       <c r="Y5">
         <v>-3.21</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.1195</v>
+        <v>2.1082</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -3419,16 +3419,16 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.1195</v>
+        <v>2.1082</v>
       </c>
       <c r="P6">
         <v>50</v>
       </c>
       <c r="Q6">
-        <v>105.9726370984971</v>
+        <v>105.4115978965262</v>
       </c>
       <c r="R6">
-        <v>34.82</v>
+        <v>34.81</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -3437,16 +3437,16 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>65.37</v>
+        <v>63.41</v>
       </c>
       <c r="V6">
-        <v>65.61</v>
+        <v>63.62</v>
       </c>
       <c r="W6">
-        <v>54.61</v>
+        <v>52.65</v>
       </c>
       <c r="X6">
-        <v>-1.74</v>
+        <v>-1.73</v>
       </c>
       <c r="Y6">
         <v>49.62</v>
@@ -3505,13 +3505,13 @@
         <v>109.7677</v>
       </c>
       <c r="E7">
-        <v>24.371</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>85</v>
+        <v>94.68000000000001</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>85</v>
+        <v>89.58280000000001</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -3529,22 +3529,22 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>85</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>389.1388</v>
+        <v>388.6305</v>
       </c>
       <c r="P7">
         <v>400</v>
       </c>
       <c r="Q7">
-        <v>20550.65070287588</v>
+        <v>20327.35539016032</v>
       </c>
       <c r="R7">
-        <v>54.98</v>
+        <v>54.48</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>70.59</v>
+        <v>68.83</v>
       </c>
       <c r="V7">
-        <v>63.84</v>
+        <v>61.71</v>
       </c>
       <c r="W7">
-        <v>51.45</v>
+        <v>48.8</v>
       </c>
       <c r="X7">
-        <v>-21.9</v>
+        <v>-21.4</v>
       </c>
       <c r="Y7">
         <v>32.76</v>
@@ -3621,13 +3621,13 @@
         <v>110.0625</v>
       </c>
       <c r="E8">
-        <v>35.3628</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>85</v>
+        <v>94.9669</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>85</v>
+        <v>99.6152</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -3645,22 +3645,22 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>85</v>
+        <v>94.928</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>400.4254</v>
+        <v>399.5727</v>
       </c>
       <c r="P8">
         <v>400</v>
       </c>
       <c r="Q8">
-        <v>21224.89679303603</v>
+        <v>20974.78524695248</v>
       </c>
       <c r="R8">
-        <v>33.08</v>
+        <v>32.23</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>70.84</v>
+        <v>69.31</v>
       </c>
       <c r="V8">
-        <v>63.85</v>
+        <v>61.71</v>
       </c>
       <c r="W8">
-        <v>60.52</v>
+        <v>57.39</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="Y8">
         <v>-0.42</v>
@@ -3737,13 +3737,13 @@
         <v>110.4395</v>
       </c>
       <c r="E9">
-        <v>40.2904</v>
+        <v>3.7149</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>85</v>
+        <v>95.3326</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -3761,22 +3761,22 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>85</v>
+        <v>95.3424</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>405.7299</v>
+        <v>404.8294</v>
       </c>
       <c r="P9">
         <v>400</v>
       </c>
       <c r="Q9">
-        <v>21539.40088766691</v>
+        <v>21278.61946641366</v>
       </c>
       <c r="R9">
-        <v>32.4</v>
+        <v>31.5</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -3785,16 +3785,16 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>72.09999999999999</v>
+        <v>70.55</v>
       </c>
       <c r="V9">
-        <v>63.85</v>
+        <v>61.7</v>
       </c>
       <c r="W9">
-        <v>42.7</v>
+        <v>40.17</v>
       </c>
       <c r="X9">
-        <v>0.68</v>
+        <v>1.58</v>
       </c>
       <c r="Y9">
         <v>-6.41</v>
@@ -3853,13 +3853,13 @@
         <v>108.9453</v>
       </c>
       <c r="E10">
-        <v>11.1903</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>85</v>
+        <v>93.86669999999999</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>85</v>
+        <v>79.044</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -3877,22 +3877,22 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>85</v>
+        <v>93.37479999999999</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>375.1358</v>
+        <v>375.2308</v>
       </c>
       <c r="P10">
         <v>400</v>
       </c>
       <c r="Q10">
-        <v>19718.69157126054</v>
+        <v>19551.98004928838</v>
       </c>
       <c r="R10">
-        <v>32.34</v>
+        <v>32.44</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -3901,16 +3901,16 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>72.20999999999999</v>
+        <v>70.12</v>
       </c>
       <c r="V10">
-        <v>63.84</v>
+        <v>61.72</v>
       </c>
       <c r="W10">
-        <v>78.3</v>
+        <v>74.92</v>
       </c>
       <c r="X10">
-        <v>0.74</v>
+        <v>0.64</v>
       </c>
       <c r="Y10">
         <v>24.12</v>
